--- a/carga_de_productos.xlsx
+++ b/carga_de_productos.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\alluring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{964067A9-0995-44C7-A914-7ADD77AADFF2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95060A1C-A464-4401-A9D3-08D044263124}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{DDD8B2B0-7475-4672-A6FD-21A7297F81FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4470" xr2:uid="{DDD8B2B0-7475-4672-A6FD-21A7297F81FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>nombre</t>
   </si>
@@ -36,9 +41,6 @@
     <t>costo</t>
   </si>
   <si>
-    <t>imagen</t>
-  </si>
-  <si>
     <t>categoria</t>
   </si>
   <si>
@@ -48,54 +50,68 @@
     <t>codigo</t>
   </si>
   <si>
-    <t>Producto 2</t>
-  </si>
-  <si>
-    <t>Producto 3</t>
-  </si>
-  <si>
-    <t>Desc Producto 2</t>
-  </si>
-  <si>
-    <t>Desc Producto 3</t>
-  </si>
-  <si>
-    <t>Producto 1</t>
-  </si>
-  <si>
-    <t>Desc Producto 1</t>
-  </si>
-  <si>
     <t>Bodega3</t>
   </si>
   <si>
     <t>Bodega2</t>
   </si>
   <si>
-    <t>Y02.jpeg</t>
-  </si>
-  <si>
-    <t>Y02</t>
-  </si>
-  <si>
-    <t>Y03</t>
-  </si>
-  <si>
-    <t>Y03.jpeg</t>
-  </si>
-  <si>
-    <t>Y01.jpeg</t>
-  </si>
-  <si>
-    <t>Y01</t>
+    <t>Es un producto de pruebas 1</t>
+  </si>
+  <si>
+    <t>Es un producto de pruebas 2</t>
+  </si>
+  <si>
+    <t>Es un producto de pruebas 3</t>
+  </si>
+  <si>
+    <t>codigo_externo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Y11</t>
+  </si>
+  <si>
+    <t>Y12</t>
+  </si>
+  <si>
+    <t>Y13</t>
+  </si>
+  <si>
+    <t>Pruebas 11</t>
+  </si>
+  <si>
+    <t>Pruebas 12</t>
+  </si>
+  <si>
+    <t>Pruebas 13</t>
+  </si>
+  <si>
+    <t>PROD11</t>
+  </si>
+  <si>
+    <t>PROD12</t>
+  </si>
+  <si>
+    <t>PROD13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,8 +139,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -439,22 +456,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F61A2E5-A0C9-4C07-8269-E62369B8D260}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,65 +479,65 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>75</v>
@@ -529,45 +546,50 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K14" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>35</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/carga_de_productos.xlsx
+++ b/carga_de_productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\alluring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95060A1C-A464-4401-A9D3-08D044263124}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA13591-5D52-45C6-A5EB-32FAC79CB01B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4470" xr2:uid="{DDD8B2B0-7475-4672-A6FD-21A7297F81FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>nombre</t>
   </si>
@@ -50,52 +50,34 @@
     <t>codigo</t>
   </si>
   <si>
-    <t>Bodega3</t>
-  </si>
-  <si>
-    <t>Bodega2</t>
-  </si>
-  <si>
-    <t>Es un producto de pruebas 1</t>
-  </si>
-  <si>
-    <t>Es un producto de pruebas 2</t>
-  </si>
-  <si>
-    <t>Es un producto de pruebas 3</t>
-  </si>
-  <si>
-    <t>codigo_externo</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Y11</t>
-  </si>
-  <si>
-    <t>Y12</t>
-  </si>
-  <si>
-    <t>Y13</t>
-  </si>
-  <si>
-    <t>Pruebas 11</t>
-  </si>
-  <si>
-    <t>Pruebas 12</t>
-  </si>
-  <si>
-    <t>Pruebas 13</t>
-  </si>
-  <si>
-    <t>PROD11</t>
-  </si>
-  <si>
-    <t>PROD12</t>
-  </si>
-  <si>
-    <t>PROD13</t>
+    <t>Arete con CZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arete con CZ </t>
+  </si>
+  <si>
+    <t>Arete con perla</t>
+  </si>
+  <si>
+    <t>Aretes con perla cultivada</t>
+  </si>
+  <si>
+    <t>codigo_origen</t>
+  </si>
+  <si>
+    <t>bodega3</t>
+  </si>
+  <si>
+    <t>bodega1</t>
+  </si>
+  <si>
+    <t>PROD1</t>
+  </si>
+  <si>
+    <t>PROD2</t>
   </si>
 </sst>
 </file>
@@ -456,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F61A2E5-A0C9-4C07-8269-E62369B8D260}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,7 +453,7 @@
     <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,15 +476,15 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -516,80 +498,45 @@
       <c r="E2">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
         <v>75</v>
       </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K14" s="1" t="s">
-        <v>12</v>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J14" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
